--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1697816.0223638</v>
+        <v>-1699766.24819236</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>112.4119985531644</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>148.7613365936918</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>389.9138239343906</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.69477323292283</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>136.1916198885551</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>48.27083703815669</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>375.7791228457704</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>275.686406649936</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.67852904652714</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.380776375748</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.49556798565658</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>235.6774517284618</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>44.84879889140051</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>122.3623168480193</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>122.2151751544596</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>125.7924254768038</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896906</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>212.9573806575962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>107.2487026146587</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.91035731440818</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>27.95498380984847</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>106.8639111584413</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>169.4333835975975</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>105.5303094322331</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>213.1553440493619</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373663</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789515</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
         <v>42.28735533463134</v>
@@ -2998,25 +2998,25 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287482</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3436,7 +3436,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.255747799587</v>
+        <v>1544.88834568071</v>
       </c>
       <c r="C2" t="n">
-        <v>1133.255747799587</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>774.990049192837</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>774.990049192837</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>774.990049192837</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519.855587863709</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>2338.78921905797</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>2559.5817982015</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>2559.5817982015</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>2559.5817982015</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>2559.5817982015</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>2559.5817982015</v>
       </c>
       <c r="X4" t="n">
-        <v>649.953643809393</v>
+        <v>2559.5817982015</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.1610646658629</v>
+        <v>2338.78921905797</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2716929833838</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C7" t="n">
-        <v>359.2716929833838</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>359.2716929833838</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>359.2716929833838</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2716929833838</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1095.753074569373</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>709.9648219711289</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.842488573869</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.5412816668486</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="C10" t="n">
-        <v>177.5412816668486</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>177.5412816668486</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.1897464970883</v>
+        <v>144.9013233152508</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438901</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>629.509310661497</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635866</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1036.992695872058</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>747.5755258350974</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>747.5755258350974</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>747.5755258350974</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.319011615588</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.0842369787848</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
         <v>527.3450129705744</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.732701809025</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.732701809025</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y16" t="n">
-        <v>1172.732701809025</v>
+        <v>677.4616523829102</v>
       </c>
     </row>
     <row r="17">
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,7 +5592,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>549.5984374701561</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.0756695821905</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>407.1394866542836</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>407.1394866542836</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>407.1394866542836</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>407.1394866542836</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>238.9641649741042</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>757.8448490928333</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="X19" t="n">
-        <v>757.7241344124302</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y19" t="n">
-        <v>757.7241344124302</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>1056.112407304747</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488382</v>
+        <v>1056.112407304747</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>1056.112407304747</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>1056.112407304747</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>835.3198281612173</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1192.399988319684</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>903.2713495332425</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>648.5868613273557</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W25" t="n">
-        <v>359.1696912903951</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X25" t="n">
-        <v>359.1696912903951</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.1696912903951</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6373,7 +6373,7 @@
         <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6601,7 +6601,7 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083206</v>
@@ -6652,16 +6652,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
         <v>772.2886129010318</v>
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,49 +6698,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,28 +7591,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>253.7371603504737</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>124.3400780863238</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>180.0237016735873</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>270.3218431103162</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.87034608640436</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22711,19 +22711,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>75.95391906146381</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>44.27839330891794</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.3452178470242</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>73.56561767899484</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>111.3359507374361</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>119.003471053128</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>224.1826595139795</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>179.3734412401361</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>117.0896147389935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>116.0172516261562</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>73.36765428722907</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016745</v>
+        <v>77466.06243016748</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
+        <v>78205.81194754172</v>
+      </c>
+      <c r="F2" t="n">
         <v>78205.81194754175</v>
       </c>
-      <c r="F2" t="n">
-        <v>78205.81194754173</v>
-      </c>
       <c r="G2" t="n">
+        <v>78205.81194754178</v>
+      </c>
+      <c r="H2" t="n">
         <v>78205.81194754172</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754176</v>
       </c>
       <c r="I2" t="n">
         <v>78205.81194754175</v>
@@ -26338,22 +26338,22 @@
         <v>82104.17698642849</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642846</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130302.1274369501</v>
+        <v>130302.1274369502</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,22 +26427,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="K4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="K4" t="n">
-        <v>37464.45686275959</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725663.0222847366</v>
+        <v>-725778.9751486433</v>
       </c>
       <c r="C6" t="n">
         <v>-157529.8593282038</v>
       </c>
       <c r="D6" t="n">
-        <v>-157529.8593282037</v>
+        <v>-157529.8593282038</v>
       </c>
       <c r="E6" t="n">
-        <v>-553987.22009951</v>
+        <v>-554084.679225482</v>
       </c>
       <c r="F6" t="n">
-        <v>-28827.18362261401</v>
+        <v>-28924.64274858618</v>
       </c>
       <c r="G6" t="n">
-        <v>-28827.18362261404</v>
+        <v>-28924.64274858611</v>
       </c>
       <c r="H6" t="n">
-        <v>-28827.18362261396</v>
+        <v>-28924.64274858622</v>
       </c>
       <c r="I6" t="n">
-        <v>-28827.18362261399</v>
+        <v>-28924.64274858613</v>
       </c>
       <c r="J6" t="n">
         <v>-284004.116992662</v>
       </c>
       <c r="K6" t="n">
-        <v>-53075.38569635667</v>
+        <v>-53075.3856963565</v>
       </c>
       <c r="L6" t="n">
-        <v>-53075.38569635655</v>
+        <v>-53075.38569635659</v>
       </c>
       <c r="M6" t="n">
         <v>-187876.4009301937</v>
       </c>
       <c r="N6" t="n">
-        <v>-53075.38569635659</v>
+        <v>-53075.38569635661</v>
       </c>
       <c r="O6" t="n">
-        <v>-107580.8978000692</v>
+        <v>-107580.8978000691</v>
       </c>
       <c r="P6" t="n">
-        <v>-53075.38569635661</v>
+        <v>-53075.38569635658</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,28 +26741,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>216.5115551773157</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.5431654231307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>177.4388183508805</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.954718817710159</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>78.99663497074692</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>168.1534511354102</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>96.90109786622972</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>290.238273677824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>171.1985940132496</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3980222072273</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>24.07164579854985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,19 +35969,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>536.1008625915819</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367899</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734238</v>
+        <v>490.4480787240536</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
